--- a/biology/Zoologie/Colotis_danae/Colotis_danae.xlsx
+++ b/biology/Zoologie/Colotis_danae/Colotis_danae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colotis danae ou Cramoisi est un insecte lépidoptère du  genre Colotis, de la famille des Pieridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cramoisi se trouve dans les plaines, dans les régions boisées et broussailleuses en Afrique, dans la péninsule arabique, en Iran, dans le sud et l'ouest de l'Inde et au Sri Lanka.
 </t>
@@ -544,13 +558,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Papillon
-Le cramoisi mesure en moyenne de 4,5 à 5 cm d'envergure[1].
+          <t>Papillon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le cramoisi mesure en moyenne de 4,5 à 5 cm d'envergure.
 			Mâle
 			Femelle
 Le mâle est blanc avec des taches cramoisies (rouges) sur ses ailes antérieures ; la femelle a des marques noires étendues.
-Chenille
-La chenille est vert. Elle se développe dans les capparis, cadaba (cadaba farinosa ...) et maerua.
 </t>
         </is>
       </c>
@@ -576,12 +594,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est vert. Elle se développe dans les capparis, cadaba (cadaba farinosa ...) et maerua.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colotis_danae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colotis_danae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Sultanat d'Oman lui a dédié une émission en 2000[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sultanat d'Oman lui a dédié une émission en 2000.
 </t>
         </is>
       </c>
